--- a/outputs-HGR-r202/f__Anaerotignaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerotignaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1652.fa</t>
+          <t>even_MAG-GUT10982_1.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999631848875</v>
+        <v>0.9999998237031072</v>
       </c>
       <c r="C3" t="n">
-        <v>3.681511250371719e-08</v>
+        <v>1.762968927704049e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999631848875</v>
+        <v>0.9999998237031072</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37858.fa</t>
+          <t>even_MAG-GUT10982_2.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999998980858568</v>
+        <v>0.9999996429482457</v>
       </c>
       <c r="C4" t="n">
-        <v>1.019141431848773e-07</v>
+        <v>3.570517542900424e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999998980858568</v>
+        <v>0.9999996429482457</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4268.fa</t>
+          <t>even_MAG-GUT1652.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998945340285749</v>
+        <v>0.9999999631848875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001054659714251422</v>
+        <v>3.681511250371719e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998945340285749</v>
+        <v>0.9999999631848875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43178.fa</t>
+          <t>even_MAG-GUT1652_1.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999382964991</v>
+        <v>0.9999999300609992</v>
       </c>
       <c r="C6" t="n">
-        <v>6.170350082113511e-08</v>
+        <v>6.993900083629048e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999382964991</v>
+        <v>0.9999999300609992</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,17 +599,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59077.fa</t>
+          <t>even_MAG-GUT1652_2.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994285323270002</v>
+        <v>0.9999999209889492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005714676729997449</v>
+        <v>7.901105084638334e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9994285323270002</v>
+        <v>0.9999999209889492</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,24 +625,310 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT37858.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9999998980858568</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.019141431848773e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9999998980858568</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37858_1.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9999998496555016</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.503444984328137e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9999998496555016</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37858_2.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9999997516111857</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.483888142913077e-07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9999997516111857</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4268.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9998945340285749</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001054659714251422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9998945340285749</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4268_1.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9998500061328556</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0001499938671443714</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9998500061328556</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43178.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9999999382964991</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.170350082113511e-08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9999999382964991</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43178_1.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9999999231460622</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.685393775129471e-08</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9999999231460622</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43178_2.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9999998456348769</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.543651231792446e-07</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9999998456348769</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59077.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9994285323270002</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0005714676729997449</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9994285323270002</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT72315.fa</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>0.9999991543007422</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>8.45699257856029e-07</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>0.9999991543007422</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72315_1.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9999985946227574</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.405377242606316e-06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9999985946227574</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72315_2.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9999982436224539</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.756377546059832e-06</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9999982436224539</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>g__Anaerotignum</t>
         </is>

--- a/outputs-HGR-r202/f__Anaerotignaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerotignaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>g__Anaerotignum</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1023,6 +1158,11 @@
         <v>0.9999400302163055</v>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>g__Anaerotignum</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>g__Anaerotignum</t>
         </is>

--- a/outputs-HGR-r202/f__Anaerotignaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerotignaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,422 +752,6 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT4268.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9998945340285749</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001054659714251422</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9998945340285749</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT43178.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9999999382964991</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6.170350082113511e-08</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9999999382964991</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT43289.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9996826777274123</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0003173222725877069</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9996826777274123</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5430.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9999999865136354</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.348636456551969e-08</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9999999865136354</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58303.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9989006900204064</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.001099309979593612</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9989006900204064</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59077.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9994285323270002</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005714676729997449</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9994285323270002</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59980.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9998372631263773</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0001627368736226294</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9998372631263773</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60274.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9994938374386402</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005061625613598389</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9994938374386402</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60799.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9998690334732612</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0001309665267388838</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9998690334732612</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62028.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.999999982901066</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.709893405785948e-08</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.999999982901066</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72315.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9999991543007422</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8.45699257856029e-07</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9999991543007422</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74622.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9999940715525476</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.928447452428751e-06</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9999940715525476</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81205.fa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.999917463633214</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.25363667860386e-05</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.999917463633214</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81308.fa</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9996155767324327</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0003844232675672755</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9996155767324327</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81831.fa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.999301209115102</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0006987908848979908</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.999301209115102</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87133.fa</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.9999400302163055</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5.996978369445201e-05</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9999400302163055</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>g__Anaerotignum</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
